--- a/output/fit_clients/fit_round_117.xlsx
+++ b/output/fit_clients/fit_round_117.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2170775989.158057</v>
+        <v>2247473254.769294</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08922730002033119</v>
+        <v>0.1105026879983987</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03271463784978526</v>
+        <v>0.03808703757173711</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1085388013.10603</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2606795732.864186</v>
+        <v>1912366947.270908</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1511225013752233</v>
+        <v>0.1561276186814799</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03841973517993332</v>
+        <v>0.04555637522273741</v>
       </c>
       <c r="H3" t="b">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1303398000.396059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3298780453.78409</v>
+        <v>3471733403.337629</v>
       </c>
       <c r="F4" t="n">
-        <v>0.135790047481061</v>
+        <v>0.1496490930583731</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03699521972616783</v>
+        <v>0.03719825054116797</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>42</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1649390191.33607</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3764970110.448859</v>
+        <v>3537309686.150827</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09342277502965365</v>
+        <v>0.08314622157045401</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03489443170248877</v>
+        <v>0.03102169560336373</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>46</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1882485074.454958</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -632,22 +598,16 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2515697349.846445</v>
+        <v>1795418332.669991</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1369998618134546</v>
+        <v>0.1008430506876092</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05567277644534752</v>
+        <v>0.03693305508431435</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>19</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1257848648.650763</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>1896307186.094496</v>
+        <v>2643978773.472016</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07566358789618904</v>
+        <v>0.09853152060216144</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03896759003543995</v>
+        <v>0.04124967254344169</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>36</v>
-      </c>
-      <c r="J7" t="n">
-        <v>948153664.1692706</v>
       </c>
     </row>
     <row r="8">
@@ -700,22 +654,16 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2662020823.619523</v>
+        <v>2883638458.952188</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1499400506373927</v>
+        <v>0.1651768277833577</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02659622404110728</v>
+        <v>0.03159598064459816</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>37</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1331010434.718124</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2294214416.425996</v>
+        <v>2268250345.735232</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1744936272699829</v>
+        <v>0.1608977311611693</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02549639575707073</v>
+        <v>0.03247693321288238</v>
       </c>
       <c r="H9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1147107193.915388</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -768,22 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4810267806.856011</v>
+        <v>4994701007.457103</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1784173333118647</v>
+        <v>0.1763791530902922</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0483763058427563</v>
+        <v>0.04371780331789034</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>50</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2405133987.986714</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3945924245.489244</v>
+        <v>4074963657.663631</v>
       </c>
       <c r="F11" t="n">
-        <v>0.119374535531105</v>
+        <v>0.1702223804546446</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03979984733058185</v>
+        <v>0.03735810036739925</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>49</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1972962131.580492</v>
       </c>
     </row>
     <row r="12">
@@ -836,22 +766,16 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2719496958.658746</v>
+        <v>2325549621.939922</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1974422672425657</v>
+        <v>0.1935205223374545</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0486699462011325</v>
+        <v>0.03354827753416556</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>42</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1359748471.599023</v>
       </c>
     </row>
     <row r="13">
@@ -870,22 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3218512515.257334</v>
+        <v>4254374611.439192</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08197875825865854</v>
+        <v>0.06997847873767246</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03015055952403144</v>
+        <v>0.02817451351983702</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>39</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1609256352.206627</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3389160101.573901</v>
+        <v>3338929411.34025</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1871864448726445</v>
+        <v>0.1200511536121282</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03464217874329879</v>
+        <v>0.03778937373564428</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>37</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1694580056.989831</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1679550069.744487</v>
+        <v>1179822992.878751</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1056614492301967</v>
+        <v>0.1092829140347423</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04850825099307345</v>
+        <v>0.04271548228029004</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>839775161.0202385</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2735111348.210436</v>
+        <v>2484602230.365669</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07988769971605701</v>
+        <v>0.1012772279907489</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0318592398562155</v>
+        <v>0.03872120552228686</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>17</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1367555683.852331</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5311784277.135891</v>
+        <v>5316939147.450235</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1336688483676864</v>
+        <v>0.1512594970705115</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03864671608359081</v>
+        <v>0.04796335525666133</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>34</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2655892108.29689</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2680198297.083205</v>
+        <v>3156383318.985319</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1544461307923144</v>
+        <v>0.1847510595186465</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0244408583962865</v>
+        <v>0.02197418084200033</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>38</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1340099201.945923</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1222420204.315366</v>
+        <v>1125656170.29247</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1216709347159633</v>
+        <v>0.1578349559545829</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02014436331536816</v>
+        <v>0.02542650684126092</v>
       </c>
       <c r="H19" t="b">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>611210185.5067838</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2714667644.986265</v>
+        <v>2648196768.374881</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1539840654842329</v>
+        <v>0.1393562301070444</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02220652921802637</v>
+        <v>0.02314789500604311</v>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>14</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1357333772.633126</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1142,22 +1018,16 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2517289154.083662</v>
+        <v>2465914418.8729</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06809280004220673</v>
+        <v>0.07042305461632195</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03880356413183682</v>
+        <v>0.0317454816154475</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>12</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1258644563.467657</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>4000541330.541226</v>
+        <v>3014608545.049324</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09863451228496836</v>
+        <v>0.1313719515043326</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05470161541028266</v>
+        <v>0.04495640120485828</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>32</v>
-      </c>
-      <c r="J22" t="n">
-        <v>2000270666.823752</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1543358471.531096</v>
+        <v>1445015901.721913</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1511337057134086</v>
+        <v>0.1176862353343649</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04435661840008066</v>
+        <v>0.03475510256052192</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>771679214.3493062</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3090845017.022108</v>
+        <v>3675498613.44892</v>
       </c>
       <c r="F24" t="n">
-        <v>0.116951203563272</v>
+        <v>0.1307211151950567</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03189568883349752</v>
+        <v>0.02415988847160434</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>34</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1545422537.583293</v>
       </c>
     </row>
     <row r="25">
@@ -1278,22 +1130,16 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1275626209.926393</v>
+        <v>1426853286.476489</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1209296052208592</v>
+        <v>0.08582645732908424</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02332221258610537</v>
+        <v>0.0283934905231015</v>
       </c>
       <c r="H25" t="b">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>637813105.4765083</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1057227986.133655</v>
+        <v>903695268.5559579</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1221113924844155</v>
+        <v>0.1223363543385915</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0361342206085812</v>
+        <v>0.03686035177635444</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>528613979.082967</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3855988955.646485</v>
+        <v>4337588826.450712</v>
       </c>
       <c r="F27" t="n">
-        <v>0.135978393403803</v>
+        <v>0.1004006003237354</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02088594113197603</v>
+        <v>0.01845766036648071</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>26</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1927994495.099811</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3446827104.854956</v>
+        <v>3845032994.96696</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09633066173602724</v>
+        <v>0.1441443913770499</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04467099620269126</v>
+        <v>0.04949997738002238</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>38</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1723413602.374595</v>
       </c>
     </row>
     <row r="29">
@@ -1414,22 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5117586279.246125</v>
+        <v>4447906578.205086</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1218176960166037</v>
+        <v>0.1240772064704372</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04525691527044508</v>
+        <v>0.03259725212785029</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>53</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2558793078.957809</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2039094105.364725</v>
+        <v>1948381216.662106</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1262194174605066</v>
+        <v>0.09857670850450156</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03486076329647467</v>
+        <v>0.03699081189305578</v>
       </c>
       <c r="H30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1019547094.569318</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1482,22 +1298,16 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1017230947.419342</v>
+        <v>1395119522.271717</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09263179913211826</v>
+        <v>0.07079159639723644</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0496164828424092</v>
+        <v>0.04135201940949856</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>508615468.1375573</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1460194424.302711</v>
+        <v>1476720799.662426</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08798344565167156</v>
+        <v>0.09900680410173911</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02342686441054654</v>
+        <v>0.03269160343178962</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>730097272.2013448</v>
       </c>
     </row>
     <row r="33">
@@ -1550,22 +1354,16 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2080439660.710344</v>
+        <v>2837232081.553203</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1368629173432688</v>
+        <v>0.1384774277304306</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05799906129587427</v>
+        <v>0.03743933684725168</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>33</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1040219904.240741</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>950817823.7813141</v>
+        <v>1074917286.693053</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1144093797174829</v>
+        <v>0.118628148923761</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01723138387795887</v>
+        <v>0.02610428087273167</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>475408957.7951861</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>867939855.7296225</v>
+        <v>1165148195.194477</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09818686098460074</v>
+        <v>0.08365619467555004</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03613606926129323</v>
+        <v>0.03901723882754009</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>433969975.3502967</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2205438496.390135</v>
+        <v>2313042998.451148</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1781254405483863</v>
+        <v>0.1122502816479955</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01963988870551134</v>
+        <v>0.02228639333279263</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>29</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1102719293.726418</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2065725173.982659</v>
+        <v>2574691868.338202</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09163568843186659</v>
+        <v>0.106558321612299</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02612591570409401</v>
+        <v>0.04157236875955823</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>31</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1032862623.25591</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1800878655.577538</v>
+        <v>1615665354.50513</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1127819981037455</v>
+        <v>0.1110498712466102</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02551030070401497</v>
+        <v>0.02865699952614578</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>900439334.4861301</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1486597153.384042</v>
+        <v>1343812425.739975</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1796910894763587</v>
+        <v>0.1675550387673274</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02102744327614689</v>
+        <v>0.02623601843020485</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>743298649.1174852</v>
       </c>
     </row>
     <row r="40">
@@ -1788,22 +1550,16 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1515181711.887144</v>
+        <v>1735619549.286826</v>
       </c>
       <c r="F40" t="n">
-        <v>0.111603738698862</v>
+        <v>0.106879152379873</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05441706478776058</v>
+        <v>0.04600803073889215</v>
       </c>
       <c r="H40" t="b">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>757590818.2617503</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2901530808.349631</v>
+        <v>1859346767.992795</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1417851698519529</v>
+        <v>0.1291925198752353</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03076740271262904</v>
+        <v>0.03961377930137408</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>28</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1450765390.092038</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1856,22 +1606,16 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3112736148.239441</v>
+        <v>3936721880.411109</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1006393898352787</v>
+        <v>0.08650087698189106</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02913652922754778</v>
+        <v>0.04585789159065234</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>40</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1556368042.255108</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2581261581.67523</v>
+        <v>2131213737.506388</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1790405895119304</v>
+        <v>0.1369728261180533</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01702885755894441</v>
+        <v>0.01576928023399289</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>38</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1290630831.281095</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1752032278.569408</v>
+        <v>1638030993.070513</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08603382834684015</v>
+        <v>0.07215644625304164</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02810091821799235</v>
+        <v>0.02684888631837495</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>876016196.0870512</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2406751728.24957</v>
+        <v>2026893749.803863</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1286299525459249</v>
+        <v>0.1359299384524355</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04947761342257025</v>
+        <v>0.056349280258463</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1203375895.923935</v>
       </c>
     </row>
     <row r="46">
@@ -1992,22 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4187716510.397038</v>
+        <v>5174955223.769672</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1187337749277943</v>
+        <v>0.1634195888289207</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03977265859181299</v>
+        <v>0.05427276213735734</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>42</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2093858235.425033</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>5149395772.812469</v>
+        <v>4572398231.728626</v>
       </c>
       <c r="F47" t="n">
-        <v>0.2011424721970489</v>
+        <v>0.1509728298248499</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04571299280993103</v>
+        <v>0.04746776990904462</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>31</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2574697950.617385</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -2060,22 +1774,16 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3373031151.905221</v>
+        <v>4381492537.524149</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08750557942005231</v>
+        <v>0.1053438245594265</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03914650972451344</v>
+        <v>0.02619943734927348</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>39</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1686515646.698897</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1848469082.023973</v>
+        <v>1794901822.523788</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1908908346512093</v>
+        <v>0.1835725699126331</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03101989047223739</v>
+        <v>0.04153932589649018</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>924234518.8125706</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3447100989.094862</v>
+        <v>2774981935.455328</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1328497233832765</v>
+        <v>0.1507370943403845</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03871807506103396</v>
+        <v>0.04384217262290994</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>40</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1723550522.517679</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1371438989.882793</v>
+        <v>1243136170.236278</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1814386804304658</v>
+        <v>0.1880069373044156</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03761172831736061</v>
+        <v>0.04943219400044717</v>
       </c>
       <c r="H51" t="b">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>685719518.6348441</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5195579208.766461</v>
+        <v>3599143421.614419</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1221408743915652</v>
+        <v>0.1362518801962866</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05495448666590111</v>
+        <v>0.04457523458351079</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>49</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2597789590.438223</v>
       </c>
     </row>
     <row r="53">
@@ -2230,22 +1914,16 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3386436202.094935</v>
+        <v>3146415595.317816</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2031763256790295</v>
+        <v>0.1769584310027279</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02971520385607687</v>
+        <v>0.0300055292006812</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>34</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1693218106.747165</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4717555813.55726</v>
+        <v>4598203278.304502</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1521730032123497</v>
+        <v>0.1345830638412354</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03916514037172317</v>
+        <v>0.04709703877009125</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>38</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2358778027.129036</v>
       </c>
     </row>
     <row r="55">
@@ -2298,22 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4089239711.251494</v>
+        <v>3049460685.943609</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1836106369019559</v>
+        <v>0.2099424854581885</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02187192449563629</v>
+        <v>0.02264009412196449</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>32</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2044619834.417741</v>
       </c>
     </row>
     <row r="56">
@@ -2332,22 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1368515003.595543</v>
+        <v>1676394553.959528</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1384759040032637</v>
+        <v>0.1140696137387135</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04401941706344114</v>
+        <v>0.05179836917507109</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>684257563.4529412</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3125095787.725459</v>
+        <v>4184542370.453403</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1787544702361839</v>
+        <v>0.1684062622336937</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02393982636768211</v>
+        <v>0.01756924570047786</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>37</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1562547908.723593</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1872321842.733294</v>
+        <v>1375930036.482651</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1393517163118367</v>
+        <v>0.1506302963658548</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03576319033029608</v>
+        <v>0.02532395747658411</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>936160918.4694974</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3642067026.639116</v>
+        <v>4553846476.617476</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09682750650050699</v>
+        <v>0.08018553820241382</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03857867737520759</v>
+        <v>0.04942608611950779</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>35</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1821033506.487312</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3336124242.67172</v>
+        <v>2797870512.307089</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1988850878138613</v>
+        <v>0.1766013063129389</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02508184349125535</v>
+        <v>0.02483655781815224</v>
       </c>
       <c r="H60" t="b">
         <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>36</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1668062226.8705</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3204968561.900604</v>
+        <v>2257543565.865363</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1091329197211994</v>
+        <v>0.1417179293975564</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02821516063431524</v>
+        <v>0.03025425095685512</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>41</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1602484242.035612</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2536,22 +2166,16 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1780329771.795085</v>
+        <v>1837698689.92974</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1657902007639284</v>
+        <v>0.1286896304073584</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04261530554649896</v>
+        <v>0.0343178367137699</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>890164910.9550521</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4150154702.006379</v>
+        <v>5256380666.296639</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08106065622585433</v>
+        <v>0.1065178656082184</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04364375147845369</v>
+        <v>0.0319928253434943</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>34</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2075077406.648244</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4212851967.188065</v>
+        <v>3675421638.665487</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1172714210452827</v>
+        <v>0.1678965594813533</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03400224214530433</v>
+        <v>0.02728276848843127</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>37</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2106426034.368343</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4399543126.750812</v>
+        <v>4771194277.513982</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1472712016156071</v>
+        <v>0.172175720530038</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02879937414705515</v>
+        <v>0.02133647011098101</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>43</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2199771558.065071</v>
       </c>
     </row>
     <row r="66">
@@ -2672,22 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5522132885.931988</v>
+        <v>3749082552.703736</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1503558767343535</v>
+        <v>0.1587543975617235</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04531613289081111</v>
+        <v>0.03433122771140114</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>34</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2761066498.030065</v>
       </c>
     </row>
     <row r="67">
@@ -2706,22 +2306,16 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3297250677.068207</v>
+        <v>2552510415.745237</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09387466424539254</v>
+        <v>0.08633746835203156</v>
       </c>
       <c r="G67" t="n">
-        <v>0.05122660163109421</v>
+        <v>0.03941242368787897</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>37</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1648625331.554616</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2740,22 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4594790708.944956</v>
+        <v>3755479040.394444</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1368841302547182</v>
+        <v>0.1083020902633111</v>
       </c>
       <c r="G68" t="n">
-        <v>0.05027326985058941</v>
+        <v>0.04517051873828687</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>37</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2297395386.24927</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2384676646.614176</v>
+        <v>1733110056.895766</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1672186821189295</v>
+        <v>0.1444467200362867</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05402129267603979</v>
+        <v>0.05152835145692831</v>
       </c>
       <c r="H69" t="b">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1192338377.925817</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -2808,22 +2390,16 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2468716296.021462</v>
+        <v>3441645837.072232</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06456561080156822</v>
+        <v>0.08858312794185888</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04086506644160391</v>
+        <v>0.03017963923202837</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>34</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1234358090.388647</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3850406678.041969</v>
+        <v>4773166709.785949</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1645834699491703</v>
+        <v>0.1490029509234046</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02260396204736379</v>
+        <v>0.03200649539803298</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>43</v>
-      </c>
-      <c r="J71" t="n">
-        <v>1925203358.83304</v>
       </c>
     </row>
     <row r="72">
@@ -2876,22 +2446,16 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2075612170.80911</v>
+        <v>2192313923.521268</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06535078004886927</v>
+        <v>0.076181770971378</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04639976614605573</v>
+        <v>0.04927252684751032</v>
       </c>
       <c r="H72" t="b">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1037806019.467212</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -2910,22 +2474,16 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2454378460.118582</v>
+        <v>2688839879.818855</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08060103768887415</v>
+        <v>0.06786071810826162</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03603553542498327</v>
+        <v>0.04473155941391165</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>45</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1227189275.94313</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2555774354.845272</v>
+        <v>2798902338.673779</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1762561947572041</v>
+        <v>0.1163055889126579</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0350018910668639</v>
+        <v>0.03254983801347204</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>40</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1277887281.167421</v>
       </c>
     </row>
     <row r="75">
@@ -2978,22 +2530,16 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1983310918.130229</v>
+        <v>2264962515.658856</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1522296014355246</v>
+        <v>0.1068009612694126</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03021363088026158</v>
+        <v>0.02331710791801845</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>991655424.7309422</v>
       </c>
     </row>
     <row r="76">
@@ -3012,22 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4508825299.104109</v>
+        <v>4414169387.372855</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08294188902547008</v>
+        <v>0.1129927108478505</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03273171765687664</v>
+        <v>0.02671667328614347</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>26</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2254412655.519471</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1954998209.475097</v>
+        <v>2145391780.905272</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1326780040211825</v>
+        <v>0.1538075298257147</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02985349888144466</v>
+        <v>0.02194300836904784</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>977499159.5379838</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3761568205.103733</v>
+        <v>4658898827.119452</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1335949813937288</v>
+        <v>0.1213957122217032</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04748978337879192</v>
+        <v>0.05445098772364206</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>41</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1880784085.299263</v>
       </c>
     </row>
     <row r="79">
@@ -3114,22 +2642,16 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1861667183.943377</v>
+        <v>1555009146.439484</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1599235780939945</v>
+        <v>0.1341972603432808</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03142156075291627</v>
+        <v>0.04054413259837689</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>930833689.402281</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4053745573.214557</v>
+        <v>5036267982.879734</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07405734694655215</v>
+        <v>0.1014795101932095</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03831229613909148</v>
+        <v>0.03806027569965418</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>24</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2026872788.696494</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4471543160.635974</v>
+        <v>3457860231.198464</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08969154025947772</v>
+        <v>0.1324743295188842</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02320182759594822</v>
+        <v>0.01993426496789482</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>30</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2235771561.000875</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5115371892.647977</v>
+        <v>4314935218.009637</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1334280690420723</v>
+        <v>0.1310675291095359</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02037437328326002</v>
+        <v>0.02662443094043808</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>44</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2557685923.770764</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1985158200.837159</v>
+        <v>2478436265.264668</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1271511104947483</v>
+        <v>0.1098343707734188</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03223490345749159</v>
+        <v>0.04156378052809052</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>992579083.8272542</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1731546933.121719</v>
+        <v>1921734901.921601</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08582749995690758</v>
+        <v>0.1185835352960468</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03817759111200847</v>
+        <v>0.04163166929519783</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>1</v>
-      </c>
-      <c r="J84" t="n">
-        <v>865773510.8507297</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3158842614.844158</v>
+        <v>2593703820.983287</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1512647015125775</v>
+        <v>0.1847279337140299</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03554635733722981</v>
+        <v>0.03953663307612774</v>
       </c>
       <c r="H85" t="b">
         <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>44</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1579421385.041904</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2062287298.912269</v>
+        <v>2353611713.596944</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1540058926141792</v>
+        <v>0.1706252162295101</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01754556961334246</v>
+        <v>0.02543236750809614</v>
       </c>
       <c r="H86" t="b">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>11</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1031143685.695187</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1292115383.173035</v>
+        <v>1402684193.007002</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1762243572354666</v>
+        <v>0.1408233255441854</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03887036680206851</v>
+        <v>0.02768354937757908</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>646057770.7207885</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3492110069.167517</v>
+        <v>2552771122.594481</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1104426825440703</v>
+        <v>0.1084654796485867</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03686889947509571</v>
+        <v>0.03501399185131515</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>46</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1746055113.594435</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2276532391.428988</v>
+        <v>2874580043.645519</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1244350426639206</v>
+        <v>0.1250455320937685</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02992435957908495</v>
+        <v>0.03640652513905687</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>41</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1138266286.807166</v>
       </c>
     </row>
     <row r="90">
@@ -3488,22 +2950,16 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1445033132.328089</v>
+        <v>1780322783.71847</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1020167699258795</v>
+        <v>0.1275833235704124</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04064974314531999</v>
+        <v>0.05334736278192027</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>722516534.7734365</v>
       </c>
     </row>
     <row r="91">
@@ -3522,22 +2978,16 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1347608271.115732</v>
+        <v>1678999235.003996</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1201134531986339</v>
+        <v>0.1676043189741957</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04095831466485874</v>
+        <v>0.06017546009062427</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>673804194.7180969</v>
       </c>
     </row>
     <row r="92">
@@ -3556,22 +3006,16 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2350129082.656712</v>
+        <v>2856916843.375697</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07921509374209731</v>
+        <v>0.06880761362313778</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04532738370417921</v>
+        <v>0.04194497840783359</v>
       </c>
       <c r="H92" t="b">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>27</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1175064513.892737</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -3590,22 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4675533843.413887</v>
+        <v>3998849688.227847</v>
       </c>
       <c r="F93" t="n">
-        <v>0.0857849626545811</v>
+        <v>0.1088859857707418</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04139521295826977</v>
+        <v>0.04036849709433146</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>35</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2337766878.56433</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2069563793.282346</v>
+        <v>1612631517.846725</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1367325128932378</v>
+        <v>0.1289019675401012</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03354719802720808</v>
+        <v>0.03972749839511255</v>
       </c>
       <c r="H94" t="b">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1034781903.977402</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2375286803.615615</v>
+        <v>2707481561.982212</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1328825979483592</v>
+        <v>0.117148919865978</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03284191150274413</v>
+        <v>0.03797568263756033</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>27</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1187643446.92101</v>
       </c>
     </row>
     <row r="96">
@@ -3692,22 +3118,16 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1531128348.470557</v>
+        <v>2134563590.261864</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09582325766851771</v>
+        <v>0.1407224645924256</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03835050780764872</v>
+        <v>0.03462130292731175</v>
       </c>
       <c r="H96" t="b">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>765564211.2317024</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4348905771.806793</v>
+        <v>4577918280.506325</v>
       </c>
       <c r="F97" t="n">
-        <v>0.17377988988295</v>
+        <v>0.1263632422125099</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0180034916803768</v>
+        <v>0.01762734951513173</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>38</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2174452970.289999</v>
       </c>
     </row>
     <row r="98">
@@ -3760,22 +3174,16 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3782241444.281178</v>
+        <v>3120406414.30853</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1223941138525872</v>
+        <v>0.122767661672586</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02704491777599682</v>
+        <v>0.02672484587443572</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>31</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1891120759.827268</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2237174097.294267</v>
+        <v>2110330033.562326</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1201449080453936</v>
+        <v>0.1236970557936949</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02397476739006433</v>
+        <v>0.02741316269527238</v>
       </c>
       <c r="H99" t="b">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>36</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1118586979.290393</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3036103587.578647</v>
+        <v>4506854766.825423</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1102180291309064</v>
+        <v>0.1129717968183801</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0257645607744852</v>
+        <v>0.0204391808857076</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>36</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1518051787.464852</v>
       </c>
     </row>
     <row r="101">
@@ -3862,22 +3258,16 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2439083637.446754</v>
+        <v>2953153255.459616</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1497276759016371</v>
+        <v>0.1788937956845738</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05526888553980479</v>
+        <v>0.05368542268574521</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>49</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1219541833.598505</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_117.xlsx
+++ b/output/fit_clients/fit_round_117.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2247473254.769294</v>
+        <v>2418207466.497055</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1105026879983987</v>
+        <v>0.0873364693481866</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03808703757173711</v>
+        <v>0.0362028842882317</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1912366947.270908</v>
+        <v>2065101750.117908</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1561276186814799</v>
+        <v>0.1400346160731221</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04555637522273741</v>
+        <v>0.05052285406331669</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3471733403.337629</v>
+        <v>3651066667.902326</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1496490930583731</v>
+        <v>0.1347150404387175</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03719825054116797</v>
+        <v>0.03722500711164416</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,22 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3537309686.150827</v>
+        <v>2674256567.590491</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08314622157045401</v>
+        <v>0.1107291247131195</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03102169560336373</v>
+        <v>0.03614524861215826</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1795418332.669991</v>
+        <v>2641629154.8542</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1008430506876092</v>
+        <v>0.1299850273541408</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03693305508431435</v>
+        <v>0.05585630710886525</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2643978773.472016</v>
+        <v>2733348875.110279</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09853152060216144</v>
+        <v>0.08102297744740365</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04124967254344169</v>
+        <v>0.04554046999580465</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2883638458.952188</v>
+        <v>3162534278.278596</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1651768277833577</v>
+        <v>0.1878858859583736</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03159598064459816</v>
+        <v>0.02707949239444366</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,22 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2268250345.735232</v>
+        <v>2093032271.469723</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1608977311611693</v>
+        <v>0.1767590488913228</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03247693321288238</v>
+        <v>0.03243084802811397</v>
       </c>
       <c r="H9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -704,19 +704,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4994701007.457103</v>
+        <v>4654696683.941517</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1763791530902922</v>
+        <v>0.1750746418474736</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04371780331789034</v>
+        <v>0.03443822644617221</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4074963657.663631</v>
+        <v>4271215355.923671</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1702223804546446</v>
+        <v>0.1330509783701743</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03735810036739925</v>
+        <v>0.04276988402130793</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2325549621.939922</v>
+        <v>2902855265.63297</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1935205223374545</v>
+        <v>0.1530371546668285</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03354827753416556</v>
+        <v>0.04827289813361411</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -794,16 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4254374611.439192</v>
+        <v>3306539527.491339</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06997847873767246</v>
+        <v>0.06605655193242156</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02817451351983702</v>
+        <v>0.02559812451267106</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3338929411.34025</v>
+        <v>3095441027.277734</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1200511536121282</v>
+        <v>0.1741994144526183</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03778937373564428</v>
+        <v>0.03091643240633269</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1179822992.878751</v>
+        <v>1838134673.908749</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1092829140347423</v>
+        <v>0.07140296126547263</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04271548228029004</v>
+        <v>0.04299577636180335</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2484602230.365669</v>
+        <v>2427505196.11098</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1012772279907489</v>
+        <v>0.07469667755659985</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03872120552228686</v>
+        <v>0.04233899829592528</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5316939147.450235</v>
+        <v>3527026729.159293</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1512594970705115</v>
+        <v>0.1373777104831416</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04796335525666133</v>
+        <v>0.04337843080229752</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3156383318.985319</v>
+        <v>3021670055.188377</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1847510595186465</v>
+        <v>0.1418488923752529</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02197418084200033</v>
+        <v>0.0253803776965241</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,22 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1125656170.29247</v>
+        <v>844026131.9929134</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1578349559545829</v>
+        <v>0.1314969131031342</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02542650684126092</v>
+        <v>0.01985726197056688</v>
       </c>
       <c r="H19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2648196768.374881</v>
+        <v>2796266406.16864</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1393562301070444</v>
+        <v>0.1619408163945666</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02314789500604311</v>
+        <v>0.02687903733483937</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2465914418.8729</v>
+        <v>1719522435.587166</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07042305461632195</v>
+        <v>0.08612160483331437</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0317454816154475</v>
+        <v>0.03133294237919849</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,22 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3014608545.049324</v>
+        <v>3247291100.239024</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1313719515043326</v>
+        <v>0.1098008910766097</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04495640120485828</v>
+        <v>0.04029250982183306</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1074,13 +1074,13 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1445015901.721913</v>
+        <v>1537628777.563782</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1176862353343649</v>
+        <v>0.1542789338423826</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03475510256052192</v>
+        <v>0.03977909233862865</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3675498613.44892</v>
+        <v>4105567584.841146</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1307211151950567</v>
+        <v>0.1273527492514351</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02415988847160434</v>
+        <v>0.02558869177810415</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,22 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1426853286.476489</v>
+        <v>1221569105.304418</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08582645732908424</v>
+        <v>0.09305882770572131</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0283934905231015</v>
+        <v>0.02717713957538816</v>
       </c>
       <c r="H25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>903695268.5559579</v>
+        <v>1454766055.011439</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1223363543385915</v>
+        <v>0.1184190999517541</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03686035177635444</v>
+        <v>0.02384182692872425</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4337588826.450712</v>
+        <v>4592746978.293762</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1004006003237354</v>
+        <v>0.1470416290300353</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01845766036648071</v>
+        <v>0.01782024974277944</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1214,13 +1214,13 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3845032994.96696</v>
+        <v>2530830935.967787</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1441443913770499</v>
+        <v>0.134277584199081</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04949997738002238</v>
+        <v>0.04196513122715172</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4447906578.205086</v>
+        <v>4331293393.565998</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1240772064704372</v>
+        <v>0.1136862908223792</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03259725212785029</v>
+        <v>0.03781953255994717</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,22 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1948381216.662106</v>
+        <v>2258998125.620814</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09857670850450156</v>
+        <v>0.118359203760618</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03699081189305578</v>
+        <v>0.02815574697955801</v>
       </c>
       <c r="H30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1298,13 +1298,13 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1395119522.271717</v>
+        <v>1005969313.000641</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07079159639723644</v>
+        <v>0.09426864833869195</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04135201940949856</v>
+        <v>0.04093884045397326</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1476720799.662426</v>
+        <v>1210116654.431675</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09900680410173911</v>
+        <v>0.0764709294700737</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03269160343178962</v>
+        <v>0.02427117438263554</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2837232081.553203</v>
+        <v>2016393841.378392</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1384774277304306</v>
+        <v>0.1600431431479578</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03743933684725168</v>
+        <v>0.06067273223052898</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1074917286.693053</v>
+        <v>1359100259.528055</v>
       </c>
       <c r="F34" t="n">
-        <v>0.118628148923761</v>
+        <v>0.1145515762924796</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02610428087273167</v>
+        <v>0.02309669619881363</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1410,13 +1410,13 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1165148195.194477</v>
+        <v>1184222481.201636</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08365619467555004</v>
+        <v>0.1106923125273106</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03901723882754009</v>
+        <v>0.0325491341434196</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2313042998.451148</v>
+        <v>2965747830.679909</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1122502816479955</v>
+        <v>0.1358637926702871</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02228639333279263</v>
+        <v>0.02285115542148752</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2574691868.338202</v>
+        <v>2509570055.407426</v>
       </c>
       <c r="F37" t="n">
-        <v>0.106558321612299</v>
+        <v>0.07465838329032368</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04157236875955823</v>
+        <v>0.03105326880700368</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1615665354.50513</v>
+        <v>1912666500.975037</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1110498712466102</v>
+        <v>0.1197679047914379</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02865699952614578</v>
+        <v>0.03795744843826225</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1343812425.739975</v>
+        <v>1623792819.174864</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1675550387673274</v>
+        <v>0.120262693775033</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02623601843020485</v>
+        <v>0.02699452575894304</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,22 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1735619549.286826</v>
+        <v>1151384165.379061</v>
       </c>
       <c r="F40" t="n">
-        <v>0.106879152379873</v>
+        <v>0.1358570651263824</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04600803073889215</v>
+        <v>0.04182676043689626</v>
       </c>
       <c r="H40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1859346767.992795</v>
+        <v>2492991781.999963</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1291925198752353</v>
+        <v>0.1126603242453007</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03961377930137408</v>
+        <v>0.04039844234861533</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,22 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3936721880.411109</v>
+        <v>3796752077.586147</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08650087698189106</v>
+        <v>0.07720810379985937</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04585789159065234</v>
+        <v>0.03741346817644486</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2131213737.506388</v>
+        <v>2218700007.014836</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1369728261180533</v>
+        <v>0.1997538730720964</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01576928023399289</v>
+        <v>0.01813915444081165</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1638030993.070513</v>
+        <v>1922315405.033759</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07215644625304164</v>
+        <v>0.09771021099166628</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02684888631837495</v>
+        <v>0.03608548955565297</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2026893749.803863</v>
+        <v>2218370747.685876</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1359299384524355</v>
+        <v>0.1426488350089869</v>
       </c>
       <c r="G45" t="n">
-        <v>0.056349280258463</v>
+        <v>0.03746562294025907</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,19 +1712,19 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5174955223.769672</v>
+        <v>5289371882.362361</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1634195888289207</v>
+        <v>0.1318836494994166</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05427276213735734</v>
+        <v>0.0502833767801182</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4572398231.728626</v>
+        <v>4397270167.38176</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1509728298248499</v>
+        <v>0.1835434664809349</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04746776990904462</v>
+        <v>0.04606208663232164</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4381492537.524149</v>
+        <v>3899800912.870134</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1053438245594265</v>
+        <v>0.06718711016837223</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02619943734927348</v>
+        <v>0.03128437772313421</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1802,13 +1802,13 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1794901822.523788</v>
+        <v>1533942112.354613</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1835725699126331</v>
+        <v>0.1814704911725095</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04153932589649018</v>
+        <v>0.03793528394269052</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2774981935.455328</v>
+        <v>4154059229.803879</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1507370943403845</v>
+        <v>0.1596277180230966</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04384217262290994</v>
+        <v>0.04976565619039966</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,22 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1243136170.236278</v>
+        <v>1006870630.007143</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1880069373044156</v>
+        <v>0.1670051402951525</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04943219400044717</v>
+        <v>0.05222407549717305</v>
       </c>
       <c r="H51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3599143421.614419</v>
+        <v>4349837769.160629</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1362518801962866</v>
+        <v>0.1163978927229503</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04457523458351079</v>
+        <v>0.04944957534883198</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1914,13 +1914,13 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3146415595.317816</v>
+        <v>3714277033.855506</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1769584310027279</v>
+        <v>0.1928814990450824</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0300055292006812</v>
+        <v>0.03433836850962185</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4598203278.304502</v>
+        <v>3804177278.483763</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1345830638412354</v>
+        <v>0.1325515681758175</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04709703877009125</v>
+        <v>0.04117393641760497</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3049460685.943609</v>
+        <v>3801432590.892109</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2099424854581885</v>
+        <v>0.1906221587492232</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02264009412196449</v>
+        <v>0.02856713830964892</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1998,13 +1998,13 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1676394553.959528</v>
+        <v>1421023251.429268</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1140696137387135</v>
+        <v>0.1144785873693289</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05179836917507109</v>
+        <v>0.05009610490466453</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4184542370.453403</v>
+        <v>4207875660.640697</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1684062622336937</v>
+        <v>0.1392954019866489</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01756924570047786</v>
+        <v>0.01909585945239451</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2054,13 +2054,13 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1375930036.482651</v>
+        <v>1775534067.575442</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1506302963658548</v>
+        <v>0.2010783741355466</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02532395747658411</v>
+        <v>0.03878747583662673</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4553846476.617476</v>
+        <v>3978716221.941906</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08018553820241382</v>
+        <v>0.08456413693560511</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04942608611950779</v>
+        <v>0.03522844570161286</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,22 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2797870512.307089</v>
+        <v>3782870554.464571</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1766013063129389</v>
+        <v>0.1973812242655328</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02483655781815224</v>
+        <v>0.02414891156752438</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2257543565.865363</v>
+        <v>2127615721.557677</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1417179293975564</v>
+        <v>0.133942123737991</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03025425095685512</v>
+        <v>0.02121024082503465</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1837698689.92974</v>
+        <v>1892070725.128038</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1286896304073584</v>
+        <v>0.1325470037537675</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0343178367137699</v>
+        <v>0.02998621943903564</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5256380666.296639</v>
+        <v>5148788893.566894</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1065178656082184</v>
+        <v>0.07224511553953435</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0319928253434943</v>
+        <v>0.0382627927683612</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3675421638.665487</v>
+        <v>5286004300.840623</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1678965594813533</v>
+        <v>0.1463016798139986</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02728276848843127</v>
+        <v>0.03231215111120104</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4771194277.513982</v>
+        <v>5230704851.429255</v>
       </c>
       <c r="F65" t="n">
-        <v>0.172175720530038</v>
+        <v>0.1611361024105342</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02133647011098101</v>
+        <v>0.02584293596592747</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3749082552.703736</v>
+        <v>3684036239.108863</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1587543975617235</v>
+        <v>0.108144071078018</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03433122771140114</v>
+        <v>0.04664950302171798</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2552510415.745237</v>
+        <v>3251942130.901545</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08633746835203156</v>
+        <v>0.09672542921729375</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03941242368787897</v>
+        <v>0.03297196044678934</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3755479040.394444</v>
+        <v>4721976947.269992</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1083020902633111</v>
+        <v>0.1582993713222489</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04517051873828687</v>
+        <v>0.04938117742548755</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,22 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1733110056.895766</v>
+        <v>1733755816.730484</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1444467200362867</v>
+        <v>0.1221567464594313</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05152835145692831</v>
+        <v>0.05872079591696606</v>
       </c>
       <c r="H69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -2390,13 +2390,13 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3441645837.072232</v>
+        <v>3621954093.108899</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08858312794185888</v>
+        <v>0.06848214894105401</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03017963923202837</v>
+        <v>0.03504079565553107</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4773166709.785949</v>
+        <v>4572894705.979975</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1490029509234046</v>
+        <v>0.1833110852456776</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03200649539803298</v>
+        <v>0.02330069328038364</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,22 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2192313923.521268</v>
+        <v>1567629354.6457</v>
       </c>
       <c r="F72" t="n">
-        <v>0.076181770971378</v>
+        <v>0.08875446040366616</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04927252684751032</v>
+        <v>0.03858513864668224</v>
       </c>
       <c r="H72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2688839879.818855</v>
+        <v>2521213716.737881</v>
       </c>
       <c r="F73" t="n">
-        <v>0.06786071810826162</v>
+        <v>0.09769158199905041</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04473155941391165</v>
+        <v>0.03586585544500306</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2798902338.673779</v>
+        <v>2637758314.030166</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1163055889126579</v>
+        <v>0.1527458359580585</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03254983801347204</v>
+        <v>0.02544935374568629</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2530,13 +2530,13 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2264962515.658856</v>
+        <v>1641064734.741019</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1068009612694126</v>
+        <v>0.1536792092857643</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02331710791801845</v>
+        <v>0.03542986723359097</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4414169387.372855</v>
+        <v>4041929044.477662</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1129927108478505</v>
+        <v>0.1157048333886692</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02671667328614347</v>
+        <v>0.02516976626449811</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2586,13 +2586,13 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2145391780.905272</v>
+        <v>1799385844.599795</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1538075298257147</v>
+        <v>0.1860940873035112</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02194300836904784</v>
+        <v>0.02249831154676978</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4658898827.119452</v>
+        <v>3017197965.889034</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1213957122217032</v>
+        <v>0.1341464117097975</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05445098772364206</v>
+        <v>0.05623188766902257</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1555009146.439484</v>
+        <v>1595876377.924394</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1341972603432808</v>
+        <v>0.160061994679736</v>
       </c>
       <c r="G79" t="n">
-        <v>0.04054413259837689</v>
+        <v>0.0364381923466823</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5036267982.879734</v>
+        <v>3499865807.366069</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1014795101932095</v>
+        <v>0.09112771882969854</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03806027569965418</v>
+        <v>0.03724196081434003</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3457860231.198464</v>
+        <v>3990081294.666058</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1324743295188842</v>
+        <v>0.09588585691401641</v>
       </c>
       <c r="G81" t="n">
-        <v>0.01993426496789482</v>
+        <v>0.02985398710265949</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4314935218.009637</v>
+        <v>4293804487.407539</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1310675291095359</v>
+        <v>0.1376802749311837</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02662443094043808</v>
+        <v>0.02839626509053909</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2754,13 +2754,13 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2478436265.264668</v>
+        <v>1979327329.056041</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1098343707734188</v>
+        <v>0.1086426616478691</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04156378052809052</v>
+        <v>0.03109648806995293</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1921734901.921601</v>
+        <v>2433354892.028739</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1185835352960468</v>
+        <v>0.1059541594484107</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04163166929519783</v>
+        <v>0.03464094821406326</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2810,16 +2810,16 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2593703820.983287</v>
+        <v>3324293918.311511</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1847279337140299</v>
+        <v>0.1501288460084061</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03953663307612774</v>
+        <v>0.04465715414610628</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -2832,22 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2353611713.596944</v>
+        <v>2057074958.307949</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1706252162295101</v>
+        <v>0.1474261788887129</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02543236750809614</v>
+        <v>0.01939539819920928</v>
       </c>
       <c r="H86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -2866,13 +2866,13 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1402684193.007002</v>
+        <v>1157780422.652792</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1408233255441854</v>
+        <v>0.1247566225273937</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02768354937757908</v>
+        <v>0.03250167748280683</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2894,13 +2894,13 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2552771122.594481</v>
+        <v>3114036322.947256</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1084654796485867</v>
+        <v>0.1671175779434373</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03501399185131515</v>
+        <v>0.03890286328226869</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2874580043.645519</v>
+        <v>3365291985.850362</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1250455320937685</v>
+        <v>0.1017144174154363</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03640652513905687</v>
+        <v>0.02774368625687756</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1780322783.71847</v>
+        <v>2086946160.748589</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1275833235704124</v>
+        <v>0.1068155785263764</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05334736278192027</v>
+        <v>0.04233661577144643</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2978,13 +2978,13 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1678999235.003996</v>
+        <v>1805525618.507247</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1676043189741957</v>
+        <v>0.13832897275045</v>
       </c>
       <c r="G91" t="n">
-        <v>0.06017546009062427</v>
+        <v>0.06176072826665842</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,22 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2856916843.375697</v>
+        <v>2905587770.44646</v>
       </c>
       <c r="F92" t="n">
-        <v>0.06880761362313778</v>
+        <v>0.09425994228019802</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04194497840783359</v>
+        <v>0.03978465900626547</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3998849688.227847</v>
+        <v>4479488359.28144</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1088859857707418</v>
+        <v>0.1045398429977231</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04036849709433146</v>
+        <v>0.05222372836931183</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,22 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1612631517.846725</v>
+        <v>2483818039.701653</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1289019675401012</v>
+        <v>0.1302687428915409</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03972749839511255</v>
+        <v>0.03902406416619016</v>
       </c>
       <c r="H94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2707481561.982212</v>
+        <v>2447132929.51893</v>
       </c>
       <c r="F95" t="n">
-        <v>0.117148919865978</v>
+        <v>0.1254472051866461</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03797568263756033</v>
+        <v>0.04680790501572469</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,22 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2134563590.261864</v>
+        <v>1666678709.373301</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1407224645924256</v>
+        <v>0.1085333833728565</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03462130292731175</v>
+        <v>0.04025626520885683</v>
       </c>
       <c r="H96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4577918280.506325</v>
+        <v>3802381338.889074</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1263632422125099</v>
+        <v>0.151482820466543</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01762734951513173</v>
+        <v>0.01937960325106008</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3120406414.30853</v>
+        <v>2549109539.865705</v>
       </c>
       <c r="F98" t="n">
-        <v>0.122767661672586</v>
+        <v>0.1274100949527951</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02672484587443572</v>
+        <v>0.02044185270873364</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,22 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2110330033.562326</v>
+        <v>3358979437.063709</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1236970557936949</v>
+        <v>0.1215376564382779</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02741316269527238</v>
+        <v>0.02990304847727998</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4506854766.825423</v>
+        <v>4668871554.969236</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1129717968183801</v>
+        <v>0.1523241961132837</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0204391808857076</v>
+        <v>0.02531103692435646</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2953153255.459616</v>
+        <v>2327419211.10558</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1788937956845738</v>
+        <v>0.1784288418511731</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05368542268574521</v>
+        <v>0.04984236169941994</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_117.xlsx
+++ b/output/fit_clients/fit_round_117.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -486,17 +501,24 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2418207466.497055</v>
+        <v>2426189154.211789</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0873364693481866</v>
+        <v>0.07709622208852111</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0362028842882317</v>
+        <v>0.04197930490447764</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2065101750.117908</v>
+        <v>2257532900.043715</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1400346160731221</v>
+        <v>0.1556198829322459</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05052285406331669</v>
+        <v>0.04856723625197669</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3651066667.902326</v>
+        <v>5202778762.269329</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1347150404387175</v>
+        <v>0.1417150425082604</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03722500711164416</v>
+        <v>0.02889406650262625</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>71</v>
+      </c>
+      <c r="J4" t="n">
+        <v>116</v>
+      </c>
+      <c r="K4" t="n">
+        <v>150.9517101536619</v>
       </c>
     </row>
     <row r="5">
@@ -564,23 +602,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2674256567.590491</v>
+        <v>3177446184.003692</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1107291247131195</v>
+        <v>0.08180968222800719</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03614524861215826</v>
+        <v>0.04867709394397654</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
+      <c r="I5" t="n">
+        <v>47</v>
+      </c>
+      <c r="J5" t="n">
+        <v>109</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2641629154.8542</v>
+        <v>1762718365.109903</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1299850273541408</v>
+        <v>0.1316070158885745</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05585630710886525</v>
+        <v>0.04490928055644182</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -626,17 +678,24 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2733348875.110279</v>
+        <v>2176730392.514843</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08102297744740365</v>
+        <v>0.09844157559052244</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04554046999580465</v>
+        <v>0.04125170002130123</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +707,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3162534278.278596</v>
+        <v>3668953645.169301</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1878858859583736</v>
+        <v>0.1430619952395669</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02707949239444366</v>
+        <v>0.0271391610735579</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>33</v>
+      </c>
+      <c r="J8" t="n">
+        <v>117</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +742,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2093032271.469723</v>
+        <v>1788143611.564369</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1767590488913228</v>
+        <v>0.1928050965851743</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03243084802811397</v>
+        <v>0.03704540605151882</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +777,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4654696683.941517</v>
+        <v>3730077190.888245</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1750746418474736</v>
+        <v>0.2003347534873772</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03443822644617221</v>
+        <v>0.03749194327339681</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>107</v>
+      </c>
+      <c r="J10" t="n">
+        <v>116</v>
+      </c>
+      <c r="K10" t="n">
+        <v>151.1786965130192</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +814,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4271215355.923671</v>
+        <v>4052966598.187119</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1330509783701743</v>
+        <v>0.1174568933008947</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04276988402130793</v>
+        <v>0.04106448786096261</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>48</v>
+      </c>
+      <c r="J11" t="n">
+        <v>117</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +849,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2902855265.63297</v>
+        <v>2811537127.524968</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1530371546668285</v>
+        <v>0.1910980512591505</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04827289813361411</v>
+        <v>0.04422282209359348</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +884,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3306539527.491339</v>
+        <v>3234060307.43599</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06605655193242156</v>
+        <v>0.08520179655362689</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02559812451267106</v>
+        <v>0.0212896422995691</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>58</v>
+      </c>
+      <c r="J13" t="n">
+        <v>115</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,23 +919,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3095441027.277734</v>
+        <v>2419720659.971103</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1741994144526183</v>
+        <v>0.1540161690081092</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03091643240633269</v>
+        <v>0.03989482733829171</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>22</v>
+      </c>
+      <c r="J14" t="n">
+        <v>115</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +954,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1838134673.908749</v>
+        <v>1207925356.794017</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07140296126547263</v>
+        <v>0.1048970684640384</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04299577636180335</v>
+        <v>0.04733883817242884</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -878,17 +995,24 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2427505196.11098</v>
+        <v>2209691003.884366</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07469667755659985</v>
+        <v>0.09634579665689882</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04233899829592528</v>
+        <v>0.0323351835154695</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1024,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3527026729.159293</v>
+        <v>5228267189.206869</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1373777104831416</v>
+        <v>0.1497514689077845</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04337843080229752</v>
+        <v>0.03782375706190273</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>56</v>
+      </c>
+      <c r="J17" t="n">
+        <v>117</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,22 +1059,31 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3021670055.188377</v>
+        <v>2608475959.859388</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1418488923752529</v>
+        <v>0.1344922322602653</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0253803776965241</v>
+        <v>0.03181453685552275</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>31</v>
+      </c>
+      <c r="J18" t="n">
+        <v>116</v>
+      </c>
+      <c r="K18" t="n">
+        <v>63.83722226807492</v>
       </c>
     </row>
     <row r="19">
@@ -962,17 +1102,24 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>844026131.9929134</v>
+        <v>1255145185.123626</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1314969131031342</v>
+        <v>0.1789069959741226</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01985726197056688</v>
+        <v>0.02529501893179124</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1131,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2796266406.16864</v>
+        <v>2188796363.6992</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1619408163945666</v>
+        <v>0.1285419503648975</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02687903733483937</v>
+        <v>0.02774520109949766</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1166,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1719522435.587166</v>
+        <v>2507144788.91704</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08612160483331437</v>
+        <v>0.08172272011607076</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03133294237919849</v>
+        <v>0.04419755364700358</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,22 +1201,31 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3247291100.239024</v>
+        <v>2580777297.505332</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1098008910766097</v>
+        <v>0.1369190751998385</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04029250982183306</v>
+        <v>0.05600762506082323</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>30</v>
+      </c>
+      <c r="J22" t="n">
+        <v>116</v>
+      </c>
+      <c r="K22" t="n">
+        <v>59.7593820183345</v>
       </c>
     </row>
     <row r="23">
@@ -1074,17 +1244,24 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1537628777.563782</v>
+        <v>1248685733.259735</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1542789338423826</v>
+        <v>0.1602174666643272</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03977909233862865</v>
+        <v>0.05267482175030302</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1102,17 +1279,24 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>4105567584.841146</v>
+        <v>3126221249.198277</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1273527492514351</v>
+        <v>0.1305714183759638</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02558869177810415</v>
+        <v>0.02910171950603328</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>35</v>
+      </c>
+      <c r="J24" t="n">
+        <v>113</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1308,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1221569105.304418</v>
+        <v>1470340026.027163</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09305882770572131</v>
+        <v>0.0756681277642529</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02717713957538816</v>
+        <v>0.02589817995974555</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1343,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1454766055.011439</v>
+        <v>1112380209.038847</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1184190999517541</v>
+        <v>0.08831258700698064</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02384182692872425</v>
+        <v>0.02835590459641744</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1378,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4592746978.293762</v>
+        <v>4076801221.76707</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1470416290300353</v>
+        <v>0.1220958364911931</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01782024974277944</v>
+        <v>0.0199001140688636</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>46</v>
+      </c>
+      <c r="J27" t="n">
+        <v>117</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,23 +1413,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2530830935.967787</v>
+        <v>3799901335.454185</v>
       </c>
       <c r="F28" t="n">
-        <v>0.134277584199081</v>
+        <v>0.1374138053370983</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04196513122715172</v>
+        <v>0.03413086800664008</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>25</v>
+      </c>
+      <c r="J28" t="n">
+        <v>117</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1448,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4331293393.565998</v>
+        <v>5195046223.080046</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1136862908223792</v>
+        <v>0.1391613888281209</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03781953255994717</v>
+        <v>0.03254401515504269</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>108</v>
+      </c>
+      <c r="J29" t="n">
+        <v>117</v>
+      </c>
+      <c r="K29" t="n">
+        <v>179.9615886974753</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1485,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2258998125.620814</v>
+        <v>2306784237.956047</v>
       </c>
       <c r="F30" t="n">
-        <v>0.118359203760618</v>
+        <v>0.1171973855851398</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02815574697955801</v>
+        <v>0.03932227259040418</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1520,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1005969313.000641</v>
+        <v>1222415748.036452</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09426864833869195</v>
+        <v>0.08228800554349437</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04093884045397326</v>
+        <v>0.03312500059031538</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1555,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1210116654.431675</v>
+        <v>1681943462.173651</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0764709294700737</v>
+        <v>0.09692831730729297</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02427117438263554</v>
+        <v>0.02812578911182456</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1590,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2016393841.378392</v>
+        <v>2419161849.083488</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1600431431479578</v>
+        <v>0.1320654019373592</v>
       </c>
       <c r="G33" t="n">
-        <v>0.06067273223052898</v>
+        <v>0.05310703667560256</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1625,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1359100259.528055</v>
+        <v>1297504083.169257</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1145515762924796</v>
+        <v>0.1207370053662754</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02309669619881363</v>
+        <v>0.02127186175754416</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1660,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1184222481.201636</v>
+        <v>1071587445.837965</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1106923125273106</v>
+        <v>0.1052265655176497</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0325491341434196</v>
+        <v>0.03366629070208253</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1695,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2965747830.679909</v>
+        <v>2956438426.027706</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1358637926702871</v>
+        <v>0.1122468348681872</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02285115542148752</v>
+        <v>0.02055281074948649</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>2</v>
+      </c>
+      <c r="J36" t="n">
+        <v>86</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1730,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2509570055.407426</v>
+        <v>1953732955.52853</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07465838329032368</v>
+        <v>0.07148870989955397</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03105326880700368</v>
+        <v>0.02946945433708954</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1765,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1912666500.975037</v>
+        <v>1341988576.684439</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1197679047914379</v>
+        <v>0.08144069262232208</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03795744843826225</v>
+        <v>0.02498012170735141</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1800,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1623792819.174864</v>
+        <v>1883921634.97944</v>
       </c>
       <c r="F39" t="n">
-        <v>0.120262693775033</v>
+        <v>0.1724899384404349</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02699452575894304</v>
+        <v>0.02561192884884186</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1835,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1151384165.379061</v>
+        <v>1756353519.8824</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1358570651263824</v>
+        <v>0.1056940064819932</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04182676043689626</v>
+        <v>0.05895173021147654</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1870,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2492991781.999963</v>
+        <v>2788400181.294755</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1126603242453007</v>
+        <v>0.1269470534473073</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04039844234861533</v>
+        <v>0.02869527679293102</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1606,17 +1911,24 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3796752077.586147</v>
+        <v>3212112798.003355</v>
       </c>
       <c r="F42" t="n">
-        <v>0.07720810379985937</v>
+        <v>0.1266591585466717</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03741346817644486</v>
+        <v>0.04113763636190416</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
       </c>
+      <c r="I42" t="n">
+        <v>42</v>
+      </c>
+      <c r="J42" t="n">
+        <v>113</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1940,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2218700007.014836</v>
+        <v>2792046485.249408</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1997538730720964</v>
+        <v>0.1269225719082851</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01813915444081165</v>
+        <v>0.01998637090942472</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1975,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1922315405.033759</v>
+        <v>1883656394.252837</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09771021099166628</v>
+        <v>0.0889500648457192</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03608548955565297</v>
+        <v>0.03244565304138528</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2010,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2218370747.685876</v>
+        <v>2404720325.757509</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1426488350089869</v>
+        <v>0.1716749701059521</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03746562294025907</v>
+        <v>0.04265973015552685</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2045,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5289371882.362361</v>
+        <v>4247219274.547265</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1318836494994166</v>
+        <v>0.159481054432974</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0502833767801182</v>
+        <v>0.04543550828624938</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>67</v>
+      </c>
+      <c r="J46" t="n">
+        <v>116</v>
+      </c>
+      <c r="K46" t="n">
+        <v>155.3053005414433</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +2082,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4397270167.38176</v>
+        <v>3288200427.9814</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1835434664809349</v>
+        <v>0.137408747110822</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04606208663232164</v>
+        <v>0.04429745157460302</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>52</v>
+      </c>
+      <c r="J47" t="n">
+        <v>116</v>
+      </c>
+      <c r="K47" t="n">
+        <v>88.70929311796553</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +2119,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3899800912.870134</v>
+        <v>4171316521.985818</v>
       </c>
       <c r="F48" t="n">
-        <v>0.06718711016837223</v>
+        <v>0.07245179835283547</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03128437772313421</v>
+        <v>0.02553744640914974</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>45</v>
+      </c>
+      <c r="J48" t="n">
+        <v>116</v>
+      </c>
+      <c r="K48" t="n">
+        <v>154.4375841622314</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2156,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1533942112.354613</v>
+        <v>1939014992.725853</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1814704911725095</v>
+        <v>0.1349473672151165</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03793528394269052</v>
+        <v>0.03909432266963049</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2191,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4154059229.803879</v>
+        <v>4117595980.314664</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1596277180230966</v>
+        <v>0.1306206752715443</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04976565619039966</v>
+        <v>0.04941464747951865</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>40</v>
+      </c>
+      <c r="J50" t="n">
+        <v>117</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2226,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1006870630.007143</v>
+        <v>1007390831.827217</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1670051402951525</v>
+        <v>0.1879545608445139</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05222407549717305</v>
+        <v>0.047551974281879</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2261,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4349837769.160629</v>
+        <v>3905058722.366754</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1163978927229503</v>
+        <v>0.09854864631592163</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04944957534883198</v>
+        <v>0.0434518073903563</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>91</v>
+      </c>
+      <c r="J52" t="n">
+        <v>117</v>
+      </c>
+      <c r="K52" t="n">
+        <v>156.3482239537137</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2298,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3714277033.855506</v>
+        <v>3518117701.067284</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1928814990450824</v>
+        <v>0.1591029604824457</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03433836850962185</v>
+        <v>0.03384415815590741</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>13</v>
+      </c>
+      <c r="J53" t="n">
+        <v>115</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,23 +2333,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3804177278.483763</v>
+        <v>4470885867.415977</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1325515681758175</v>
+        <v>0.1285770148970579</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04117393641760497</v>
+        <v>0.05098804205861676</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>53</v>
+      </c>
+      <c r="J54" t="n">
+        <v>117</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,23 +2368,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3801432590.892109</v>
+        <v>3875300570.458471</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1906221587492232</v>
+        <v>0.1965484831348608</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02856713830964892</v>
+        <v>0.01959280748016486</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>53</v>
+      </c>
+      <c r="J55" t="n">
+        <v>117</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2403,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1421023251.429268</v>
+        <v>1631866407.165507</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1144785873693289</v>
+        <v>0.157681834468205</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05009610490466453</v>
+        <v>0.03562864355272896</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2026,16 +2444,25 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4207875660.640697</v>
+        <v>2799256232.674258</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1392954019866489</v>
+        <v>0.1159478390191394</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01909585945239451</v>
+        <v>0.02449434490136253</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>46</v>
+      </c>
+      <c r="J57" t="n">
+        <v>116</v>
+      </c>
+      <c r="K57" t="n">
+        <v>73.71840088680307</v>
       </c>
     </row>
     <row r="58">
@@ -2048,23 +2475,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1775534067.575442</v>
+        <v>1226836031.790712</v>
       </c>
       <c r="F58" t="n">
-        <v>0.2010783741355466</v>
+        <v>0.1456189332673343</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03878747583662673</v>
+        <v>0.02673382985206526</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2082,16 +2516,25 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3978716221.941906</v>
+        <v>5042779241.116773</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08456413693560511</v>
+        <v>0.1150561627304963</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03522844570161286</v>
+        <v>0.03744409859507685</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>57</v>
+      </c>
+      <c r="J59" t="n">
+        <v>116</v>
+      </c>
+      <c r="K59" t="n">
+        <v>142.9045519480696</v>
       </c>
     </row>
     <row r="60">
@@ -2104,22 +2547,31 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3782870554.464571</v>
+        <v>2702111179.380738</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1973812242655328</v>
+        <v>0.1909601306473688</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02414891156752438</v>
+        <v>0.02417892843829186</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>17</v>
+      </c>
+      <c r="J60" t="n">
+        <v>116</v>
+      </c>
+      <c r="K60" t="n">
+        <v>70.89246617065717</v>
       </c>
     </row>
     <row r="61">
@@ -2132,23 +2584,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2127615721.557677</v>
+        <v>2819568782.613576</v>
       </c>
       <c r="F61" t="n">
-        <v>0.133942123737991</v>
+        <v>0.1175477883613464</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02121024082503465</v>
+        <v>0.02301676868744265</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>2</v>
+      </c>
+      <c r="J61" t="n">
+        <v>110</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2619,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1892070725.128038</v>
+        <v>1606924285.474368</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1325470037537675</v>
+        <v>0.1937992459175203</v>
       </c>
       <c r="G62" t="n">
-        <v>0.02998621943903564</v>
+        <v>0.04940816503863555</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2654,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5148788893.566894</v>
+        <v>3561781719.600382</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07224511553953435</v>
+        <v>0.09214309247770418</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0382627927683612</v>
+        <v>0.04551028058994312</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>58</v>
+      </c>
+      <c r="J63" t="n">
+        <v>116</v>
+      </c>
+      <c r="K63" t="n">
+        <v>114.2082148108905</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2691,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5286004300.840623</v>
+        <v>4503325693.127533</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1463016798139986</v>
+        <v>0.150997792755953</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03231215111120104</v>
+        <v>0.03023167535979669</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>58</v>
+      </c>
+      <c r="J64" t="n">
+        <v>116</v>
+      </c>
+      <c r="K64" t="n">
+        <v>146.5025779048578</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2728,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5230704851.429255</v>
+        <v>5964019441.388762</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1611361024105342</v>
+        <v>0.1181932812684264</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02584293596592747</v>
+        <v>0.02807142821300782</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>97</v>
+      </c>
+      <c r="J65" t="n">
+        <v>117</v>
+      </c>
+      <c r="K65" t="n">
+        <v>157.6240276384352</v>
       </c>
     </row>
     <row r="66">
@@ -2278,17 +2771,24 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3684036239.108863</v>
+        <v>4327459460.458809</v>
       </c>
       <c r="F66" t="n">
-        <v>0.108144071078018</v>
+        <v>0.1018985839977029</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04664950302171798</v>
+        <v>0.03495948992048372</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>57</v>
+      </c>
+      <c r="J66" t="n">
+        <v>117</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2306,17 +2806,24 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3251942130.901545</v>
+        <v>2842938602.690121</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09672542921729375</v>
+        <v>0.08471944379239522</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03297196044678934</v>
+        <v>0.03366330410233177</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,23 +2835,30 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4721976947.269992</v>
+        <v>5593868966.683995</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1582993713222489</v>
+        <v>0.1266188166884249</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04938117742548755</v>
+        <v>0.04139651153743223</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>58</v>
+      </c>
+      <c r="J68" t="n">
+        <v>117</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2356,23 +2870,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1733755816.730484</v>
+        <v>1581641994.313842</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1221567464594313</v>
+        <v>0.1503079464808965</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05872079591696606</v>
+        <v>0.04101175037983271</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2905,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3621954093.108899</v>
+        <v>2591651766.424096</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06848214894105401</v>
+        <v>0.08088642627179869</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03504079565553107</v>
+        <v>0.0339286070012212</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>14</v>
+      </c>
+      <c r="J70" t="n">
+        <v>114</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2940,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4572894705.979975</v>
+        <v>4330827514.604485</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1833110852456776</v>
+        <v>0.1524181336634612</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02330069328038364</v>
+        <v>0.02075097936843724</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>96</v>
+      </c>
+      <c r="J71" t="n">
+        <v>116</v>
+      </c>
+      <c r="K71" t="n">
+        <v>155.8537654132006</v>
       </c>
     </row>
     <row r="72">
@@ -2446,17 +2983,24 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1567629354.6457</v>
+        <v>2243720290.667043</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08875446040366616</v>
+        <v>0.08546469215383731</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03858513864668224</v>
+        <v>0.05113560747045582</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3012,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2521213716.737881</v>
+        <v>3260099707.548934</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09769158199905041</v>
+        <v>0.1112691706746618</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03586585544500306</v>
+        <v>0.04739943580418483</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>8</v>
+      </c>
+      <c r="J73" t="n">
+        <v>111</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3047,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2637758314.030166</v>
+        <v>2466797820.592309</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1527458359580585</v>
+        <v>0.1832492514254113</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02544935374568629</v>
+        <v>0.02994939608089846</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>39</v>
+      </c>
+      <c r="J74" t="n">
+        <v>115</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3082,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1641064734.741019</v>
+        <v>2432595823.701488</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1536792092857643</v>
+        <v>0.1215182703987059</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03542986723359097</v>
+        <v>0.02391132825561347</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3117,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4041929044.477662</v>
+        <v>4224787878.648699</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1157048333886692</v>
+        <v>0.1142571726320922</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02516976626449811</v>
+        <v>0.02951698950972344</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>54</v>
+      </c>
+      <c r="J76" t="n">
+        <v>117</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3152,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1799385844.599795</v>
+        <v>1441950849.403217</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1860940873035112</v>
+        <v>0.1244685875144107</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02249831154676978</v>
+        <v>0.02677709247047974</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2614,16 +3193,25 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3017197965.889034</v>
+        <v>4318370585.347307</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1341464117097975</v>
+        <v>0.09602768559959998</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05623188766902257</v>
+        <v>0.04685382683691974</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>58</v>
+      </c>
+      <c r="J78" t="n">
+        <v>117</v>
+      </c>
+      <c r="K78" t="n">
+        <v>158.511241833151</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3224,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1595876377.924394</v>
+        <v>1453387428.458566</v>
       </c>
       <c r="F79" t="n">
-        <v>0.160061994679736</v>
+        <v>0.1407017984624805</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0364381923466823</v>
+        <v>0.0361368368624311</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3259,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3499865807.366069</v>
+        <v>5371402515.61754</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09112771882969854</v>
+        <v>0.08556005231489976</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03724196081434003</v>
+        <v>0.03579464515195648</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>56</v>
+      </c>
+      <c r="J80" t="n">
+        <v>117</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,23 +3294,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3990081294.666058</v>
+        <v>5072999994.376228</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09588585691401641</v>
+        <v>0.1229991154222422</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02985398710265949</v>
+        <v>0.02604216244184752</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>52</v>
+      </c>
+      <c r="J81" t="n">
+        <v>117</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2726,16 +3335,25 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4293804487.407539</v>
+        <v>5666654347.233536</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1376802749311837</v>
+        <v>0.1925814381554309</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02839626509053909</v>
+        <v>0.0224585237268804</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>80</v>
+      </c>
+      <c r="J82" t="n">
+        <v>117</v>
+      </c>
+      <c r="K82" t="n">
+        <v>162.0264503140502</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3366,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1979327329.056041</v>
+        <v>1926626919.129046</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1086426616478691</v>
+        <v>0.1587853501112045</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03109648806995293</v>
+        <v>0.03185093036035589</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3401,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2433354892.028739</v>
+        <v>2202415458.103989</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1059541594484107</v>
+        <v>0.0728322692841383</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03464094821406326</v>
+        <v>0.04352686823682998</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3436,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3324293918.311511</v>
+        <v>2339438844.344819</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1501288460084061</v>
+        <v>0.1804251241963921</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04465715414610628</v>
+        <v>0.05054079309878711</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>19</v>
+      </c>
+      <c r="J85" t="n">
+        <v>106</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2838,17 +3477,24 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2057074958.307949</v>
+        <v>2451563467.488702</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1474261788887129</v>
+        <v>0.123311967450734</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01939539819920928</v>
+        <v>0.02297190047571597</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3506,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1157780422.652792</v>
+        <v>1173961490.454587</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1247566225273937</v>
+        <v>0.1628475806895517</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03250167748280683</v>
+        <v>0.04435588378695909</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3541,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3114036322.947256</v>
+        <v>2625148799.316823</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1671175779434373</v>
+        <v>0.1265251405713411</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03890286328226869</v>
+        <v>0.03755250962071995</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>17</v>
+      </c>
+      <c r="J88" t="n">
+        <v>106</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3576,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3365291985.850362</v>
+        <v>2820350420.286291</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1017144174154363</v>
+        <v>0.1048544775332312</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02774368625687756</v>
+        <v>0.02976411838997048</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>10</v>
+      </c>
+      <c r="J89" t="n">
+        <v>97</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3611,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2086946160.748589</v>
+        <v>1848279870.893979</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1068155785263764</v>
+        <v>0.126999629723178</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04233661577144643</v>
+        <v>0.05565603892560824</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3646,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1805525618.507247</v>
+        <v>2037314838.22508</v>
       </c>
       <c r="F91" t="n">
-        <v>0.13832897275045</v>
+        <v>0.1498137363013367</v>
       </c>
       <c r="G91" t="n">
-        <v>0.06176072826665842</v>
+        <v>0.05211121685375837</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3681,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2905587770.44646</v>
+        <v>1967644421.279777</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09425994228019802</v>
+        <v>0.08589830387704891</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03978465900626547</v>
+        <v>0.03813034879918954</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3716,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4479488359.28144</v>
+        <v>4294775295.467326</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1045398429977231</v>
+        <v>0.09001034138636561</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05222372836931183</v>
+        <v>0.05256423137210063</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>53</v>
+      </c>
+      <c r="J93" t="n">
+        <v>117</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3751,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2483818039.701653</v>
+        <v>1841357538.754019</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1302687428915409</v>
+        <v>0.1677283972108764</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03902406416619016</v>
+        <v>0.04298495931601785</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3786,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2447132929.51893</v>
+        <v>2895701409.962479</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1254472051866461</v>
+        <v>0.09972276739616857</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04680790501572469</v>
+        <v>0.03557603225002579</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>14</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3821,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1666678709.373301</v>
+        <v>2077008027.890306</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1085333833728565</v>
+        <v>0.09067343727268205</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04025626520885683</v>
+        <v>0.04519671749834337</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3856,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3802381338.889074</v>
+        <v>4840306125.4667</v>
       </c>
       <c r="F97" t="n">
-        <v>0.151482820466543</v>
+        <v>0.1210494834286227</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01937960325106008</v>
+        <v>0.02041345447573575</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>55</v>
+      </c>
+      <c r="J97" t="n">
+        <v>117</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,22 +3891,31 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2549109539.865705</v>
+        <v>3573033573.08209</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1274100949527951</v>
+        <v>0.08056342197467077</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02044185270873364</v>
+        <v>0.03270886339181048</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>28</v>
+      </c>
+      <c r="J98" t="n">
+        <v>116</v>
+      </c>
+      <c r="K98" t="n">
+        <v>111.2214944074022</v>
       </c>
     </row>
     <row r="99">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3358979437.063709</v>
+        <v>2654136976.151791</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1215376564382779</v>
+        <v>0.1250043013340208</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02990304847727998</v>
+        <v>0.03012454512656348</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>62</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3963,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4668871554.969236</v>
+        <v>3932917743.438731</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1523241961132837</v>
+        <v>0.1531328433716865</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02531103692435646</v>
+        <v>0.02590508588108242</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>48</v>
+      </c>
+      <c r="J100" t="n">
+        <v>116</v>
+      </c>
+      <c r="K100" t="n">
+        <v>141.1024054693438</v>
       </c>
     </row>
     <row r="101">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2327419211.10558</v>
+        <v>2325144597.876783</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1784288418511731</v>
+        <v>0.171234746013967</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04984236169941994</v>
+        <v>0.05310407535829438</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>6</v>
+      </c>
+      <c r="J101" t="n">
+        <v>103</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
